--- a/data/trans_media/Q02G_LAB-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q02G_LAB-Habitat-trans_media.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -649,29 +649,29 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,69</t>
+          <t>2,16; 6,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,99; 8,08</t>
+          <t>4,0; 8,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,04</t>
+          <t>2,42; 5,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,39; 7,05</t>
+          <t>3,55; 7,21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -719,39 +719,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,74; 8,46</t>
+          <t>1,87; 9,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 7,42</t>
+          <t>2,81; 7,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 3,81</t>
+          <t>2,36; 3,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,27; 5,79</t>
+          <t>3,33; 5,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 4,04</t>
+          <t>2,46; 4,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 5,67</t>
+          <t>3,45; 5,79</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -799,39 +799,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 5,31</t>
+          <t>3,0; 5,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 8,95</t>
+          <t>2,51; 8,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 5,15</t>
+          <t>2,83; 5,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,05; 4,94</t>
+          <t>3,06; 5,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 4,97</t>
+          <t>3,12; 4,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 5,4</t>
+          <t>3,11; 5,38</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 6,87</t>
+          <t>2,55; 6,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,22 +889,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,19</t>
+          <t>3,73; 6,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,57</t>
+          <t>2,7; 5,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 5,9</t>
+          <t>3,8; 5,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,08</t>
+          <t>2,55; 5,32</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,25</t>
+          <t>1,9; 3,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,13</t>
+          <t>1,92; 4,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,91; 6,36</t>
+          <t>3,88; 6,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,98</t>
+          <t>2,87; 6,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,45</t>
+          <t>3,36; 5,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,74; 4,88</t>
+          <t>2,73; 5,09</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,04; 4,71</t>
+          <t>3,07; 4,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,74; 4,93</t>
+          <t>2,77; 4,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,55; 4,65</t>
+          <t>3,5; 4,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,45; 4,8</t>
+          <t>3,51; 4,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,49; 4,43</t>
+          <t>3,56; 4,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,46; 4,53</t>
+          <t>3,44; 4,56</t>
         </is>
       </c>
     </row>
